--- a/AscendWorksheet.xlsx
+++ b/AscendWorksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roger\Documents\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0672A3-D9BE-4487-8548-02319DA857A5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ADF3B9-2C9F-493A-BCE5-179B595AEA25}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="0" windowWidth="21660" windowHeight="12360" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="0" windowWidth="21660" windowHeight="12360" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Java" sheetId="1" state="hidden" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="126">
   <si>
     <t>Date</t>
   </si>
@@ -217,18 +217,6 @@
     <t>Express Routes</t>
   </si>
   <si>
-    <t xml:space="preserve">   get(/day/#dateId) – Day Climbs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   get(/) - All Locations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   get(/user/#userId) – User Climbs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   get(/visited/byUser) – Visited Loc</t>
-  </si>
-  <si>
     <t>Climber</t>
   </si>
   <si>
@@ -404,6 +392,30 @@
   </si>
   <si>
     <t>Code</t>
+  </si>
+  <si>
+    <t>11-11 44th Dr., Long Island City, NY 11101</t>
+  </si>
+  <si>
+    <t>575 Degraw St., Brooklyn, NY 11217</t>
+  </si>
+  <si>
+    <t>23-10 41st Ave., Long Island City, NY 11101</t>
+  </si>
+  <si>
+    <t>99 Plymouth St., Brooklyn, NY 11201</t>
+  </si>
+  <si>
+    <t>482 W 43rd St., New York, NY 10036</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>MongoDB Integration</t>
+  </si>
+  <si>
+    <t>Legend Data</t>
   </si>
 </sst>
 </file>
@@ -824,7 +836,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -905,6 +917,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="60% - Accent6" xfId="5" builtinId="52"/>
@@ -1633,10 +1646,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1785,17 +1798,17 @@
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>58</v>
       </c>
@@ -1809,75 +1822,73 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
@@ -1913,10 +1924,10 @@
   <dimension ref="A2:R102"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="G78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R96" sqref="R96"/>
+      <selection pane="bottomRight" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1929,55 +1940,55 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
@@ -1985,10 +1996,10 @@
         <v>43106</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D3" s="12">
         <v>1</v>
@@ -2041,10 +2052,10 @@
         <v>43106</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D4" s="12">
         <v>0</v>
@@ -2097,10 +2108,10 @@
         <v>43106</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D5" s="12">
         <v>0</v>
@@ -2153,10 +2164,10 @@
         <v>43108</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D6" s="12">
         <v>0</v>
@@ -2209,10 +2220,10 @@
         <v>43108</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D7" s="12">
         <v>0</v>
@@ -2265,10 +2276,10 @@
         <v>43111</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D8" s="12">
         <v>1</v>
@@ -2321,10 +2332,10 @@
         <v>43111</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D9" s="12">
         <v>1</v>
@@ -2377,10 +2388,10 @@
         <v>43111</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D10" s="12">
         <v>0</v>
@@ -2433,10 +2444,10 @@
         <v>43113</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D11" s="12">
         <v>0</v>
@@ -2489,10 +2500,10 @@
         <v>43113</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D12" s="12">
         <v>1</v>
@@ -2545,10 +2556,10 @@
         <v>43116</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D13" s="12">
         <v>1</v>
@@ -2601,10 +2612,10 @@
         <v>43116</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D14" s="12">
         <v>1</v>
@@ -2657,10 +2668,10 @@
         <v>43117</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D15" s="12">
         <v>0</v>
@@ -2713,10 +2724,10 @@
         <v>43119</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D16" s="12">
         <v>1</v>
@@ -2769,10 +2780,10 @@
         <v>43121</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D17" s="12">
         <v>0</v>
@@ -2825,10 +2836,10 @@
         <v>43121</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D18" s="12">
         <v>1</v>
@@ -2881,10 +2892,10 @@
         <v>43124</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D19" s="12">
         <v>0</v>
@@ -2937,10 +2948,10 @@
         <v>43124</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D20" s="12">
         <v>1</v>
@@ -2993,10 +3004,10 @@
         <v>43124</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D21" s="12">
         <v>0</v>
@@ -3049,10 +3060,10 @@
         <v>43126</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D22" s="12">
         <v>0</v>
@@ -3105,10 +3116,10 @@
         <v>43126</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D23" s="12">
         <v>2</v>
@@ -3161,10 +3172,10 @@
         <v>43128</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D24" s="12">
         <v>0</v>
@@ -3217,10 +3228,10 @@
         <v>43128</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D25" s="12">
         <v>0</v>
@@ -3273,10 +3284,10 @@
         <v>43128</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D26" s="12">
         <v>0</v>
@@ -3329,10 +3340,10 @@
         <v>43128</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D27" s="12">
         <v>0</v>
@@ -3385,10 +3396,10 @@
         <v>43130</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D28" s="12">
         <v>0</v>
@@ -3441,10 +3452,10 @@
         <v>43132</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D29" s="12">
         <v>1</v>
@@ -3497,10 +3508,10 @@
         <v>43132</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D30" s="12">
         <v>0</v>
@@ -3553,10 +3564,10 @@
         <v>43134</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D31" s="12">
         <v>0</v>
@@ -3609,10 +3620,10 @@
         <v>43134</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D32" s="12">
         <v>1</v>
@@ -3665,10 +3676,10 @@
         <v>43134</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D33" s="12">
         <v>0</v>
@@ -3721,10 +3732,10 @@
         <v>43137</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D34" s="12">
         <v>1</v>
@@ -3777,10 +3788,10 @@
         <v>43137</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D35" s="12">
         <v>0</v>
@@ -3833,10 +3844,10 @@
         <v>43137</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D36" s="12">
         <v>2</v>
@@ -3889,10 +3900,10 @@
         <v>43137</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D37" s="12">
         <v>0</v>
@@ -3945,10 +3956,10 @@
         <v>43139</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D38" s="12">
         <v>0</v>
@@ -4001,10 +4012,10 @@
         <v>43139</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D39" s="12">
         <v>0</v>
@@ -4057,10 +4068,10 @@
         <v>43142</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D40" s="12">
         <v>0</v>
@@ -4113,10 +4124,10 @@
         <v>43146</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D41" s="12">
         <v>0</v>
@@ -4169,10 +4180,10 @@
         <v>43146</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D42" s="12">
         <v>0</v>
@@ -4225,10 +4236,10 @@
         <v>43149</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D43" s="12">
         <v>1</v>
@@ -4281,10 +4292,10 @@
         <v>43149</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D44" s="12">
         <v>0</v>
@@ -4337,10 +4348,10 @@
         <v>43149</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D45" s="12">
         <v>0</v>
@@ -4393,10 +4404,10 @@
         <v>43149</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D46" s="12">
         <v>0</v>
@@ -4449,10 +4460,10 @@
         <v>43149</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D47" s="12">
         <v>0</v>
@@ -4505,10 +4516,10 @@
         <v>43149</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D48" s="12">
         <v>0</v>
@@ -4561,10 +4572,10 @@
         <v>43153</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D49" s="12">
         <v>0</v>
@@ -4617,10 +4628,10 @@
         <v>43153</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D50" s="12">
         <v>0</v>
@@ -4673,10 +4684,10 @@
         <v>43153</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D51" s="12">
         <v>0</v>
@@ -4729,10 +4740,10 @@
         <v>43156</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D52" s="12">
         <v>1</v>
@@ -4785,10 +4796,10 @@
         <v>43156</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D53" s="12">
         <v>0</v>
@@ -4841,10 +4852,10 @@
         <v>43156</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D54" s="12">
         <v>0</v>
@@ -4897,10 +4908,10 @@
         <v>43156</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D55" s="12">
         <v>0</v>
@@ -4953,10 +4964,10 @@
         <v>43156</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D56" s="12">
         <v>0</v>
@@ -5009,10 +5020,10 @@
         <v>43156</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D57" s="12">
         <v>0</v>
@@ -5065,10 +5076,10 @@
         <v>43158</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D58" s="12">
         <v>0</v>
@@ -5121,10 +5132,10 @@
         <v>43159</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D59" s="12">
         <v>0</v>
@@ -5177,10 +5188,10 @@
         <v>43159</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D60" s="12">
         <v>0</v>
@@ -5233,10 +5244,10 @@
         <v>43161</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D61" s="12">
         <v>0</v>
@@ -5289,10 +5300,10 @@
         <v>43161</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D62" s="12">
         <v>0</v>
@@ -5345,10 +5356,10 @@
         <v>43161</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D63" s="12">
         <v>0</v>
@@ -5401,10 +5412,10 @@
         <v>43161</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D64" s="12">
         <v>0</v>
@@ -5457,10 +5468,10 @@
         <v>43163</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D65" s="12">
         <v>0</v>
@@ -5513,10 +5524,10 @@
         <v>43163</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D66" s="12">
         <v>0</v>
@@ -5569,10 +5580,10 @@
         <v>43165</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D67" s="12">
         <v>0</v>
@@ -5625,10 +5636,10 @@
         <v>43165</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D68" s="12">
         <v>0</v>
@@ -5681,10 +5692,10 @@
         <v>43165</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D69" s="12">
         <v>0</v>
@@ -5737,10 +5748,10 @@
         <v>43166</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D70" s="12">
         <v>0</v>
@@ -5793,10 +5804,10 @@
         <v>43168</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D71" s="12">
         <v>0</v>
@@ -5849,10 +5860,10 @@
         <v>43168</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D72" s="12">
         <v>0</v>
@@ -5905,10 +5916,10 @@
         <v>43170</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D73" s="12">
         <v>0</v>
@@ -5961,10 +5972,10 @@
         <v>43170</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D74" s="12">
         <v>0</v>
@@ -6017,10 +6028,10 @@
         <v>43173</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D75" s="12">
         <v>0</v>
@@ -6073,10 +6084,10 @@
         <v>43173</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D76" s="12">
         <v>0</v>
@@ -6129,10 +6140,10 @@
         <v>43173</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D77" s="12">
         <v>0</v>
@@ -6185,10 +6196,10 @@
         <v>43173</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D78" s="12">
         <v>0</v>
@@ -6241,10 +6252,10 @@
         <v>43176</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D79" s="12">
         <v>0</v>
@@ -6297,10 +6308,10 @@
         <v>43176</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D80" s="12">
         <v>0</v>
@@ -6353,10 +6364,10 @@
         <v>43176</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D81" s="12">
         <v>0</v>
@@ -6409,10 +6420,10 @@
         <v>43178</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D82" s="12">
         <v>0</v>
@@ -6465,10 +6476,10 @@
         <v>43178</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D83" s="12">
         <v>0</v>
@@ -6521,10 +6532,10 @@
         <v>43178</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D84" s="12">
         <v>0</v>
@@ -6577,10 +6588,10 @@
         <v>43178</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D85" s="12">
         <v>0</v>
@@ -6633,10 +6644,10 @@
         <v>43182</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D86" s="12">
         <v>0</v>
@@ -6689,10 +6700,10 @@
         <v>43182</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D87" s="12">
         <v>0</v>
@@ -6745,10 +6756,10 @@
         <v>43185</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D88" s="12">
         <v>0</v>
@@ -6801,10 +6812,10 @@
         <v>43187</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D89" s="12">
         <v>0</v>
@@ -6857,10 +6868,10 @@
         <v>43187</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D90" s="12">
         <v>0</v>
@@ -6913,10 +6924,10 @@
         <v>43187</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D91" s="12">
         <v>0</v>
@@ -6969,10 +6980,10 @@
         <v>43189</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D92" s="12">
         <v>0</v>
@@ -7025,10 +7036,10 @@
         <v>43189</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D93" s="12">
         <v>0</v>
@@ -7081,10 +7092,10 @@
         <v>43189</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D94" s="12">
         <v>0</v>
@@ -7137,10 +7148,10 @@
         <v>43212</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D95" s="12">
         <v>0</v>
@@ -7193,10 +7204,10 @@
         <v>43212</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D96" s="12">
         <v>0</v>
@@ -7249,10 +7260,10 @@
         <v>43212</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D97" s="12">
         <v>0</v>
@@ -7305,10 +7316,10 @@
         <v>43219</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D98" s="12">
         <v>0</v>
@@ -7361,10 +7372,10 @@
         <v>43219</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D99" s="12">
         <v>0</v>
@@ -7417,10 +7428,10 @@
         <v>43219</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D100" s="12">
         <v>0</v>
@@ -7525,8 +7536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:AB111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y100" sqref="B3:Y100"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7546,81 +7557,81 @@
     <row r="1" spans="2:25" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="37" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G2" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="N2" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="O2" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="P2" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q2" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="R2" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="S2" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="T2" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="U2" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="V2" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="W2" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="I2" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="K2" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="L2" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="M2" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="N2" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="O2" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="P2" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q2" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="R2" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="S2" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="T2" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="U2" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="V2" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="W2" s="36" t="s">
-        <v>89</v>
-      </c>
       <c r="X2" s="36" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="38" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="2:25" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C3" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C2)&amp;", "</f>
@@ -7639,7 +7650,7 @@
         <v>date: '01/06/2018',</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H3" s="40" t="str">
         <f>IF(Sample!D3=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I3:$V3,"?????*")&gt;0,", ",""),IF(Sample!D3=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I3:$V3,"?????*")&gt;0,", ",""),IF(Sample!D3=1,H$103&amp;IF(COUNTIF(I3:$V3,"?????*")&gt;0,", ","")," ")))</f>
@@ -7702,10 +7713,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W3" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X3" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y3" s="41" t="str">
         <f>IF(COUNTA(B4)=1,","," ")</f>
@@ -7714,7 +7725,7 @@
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C4" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C3)&amp;", "</f>
@@ -7733,7 +7744,7 @@
         <v>date: '01/06/2018',</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H4" s="40" t="str">
         <f>IF(Sample!D4=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I4:$V4,"?????*")&gt;0,", ",""),IF(Sample!D4=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I4:$V4,"?????*")&gt;0,", ",""),IF(Sample!D4=1,H$103&amp;IF(COUNTIF(I4:$V4,"?????*")&gt;0,", ","")," ")))</f>
@@ -7796,19 +7807,19 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W4" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X4" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y4" s="41" t="str">
-        <f>IF(COUNTA(#REF!)=1,","," ")</f>
+        <f t="shared" ref="Y4:Y65" si="0">IF(COUNTA(B5)=1,","," ")</f>
         <v>,</v>
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C5" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C4)&amp;", "</f>
@@ -7827,7 +7838,7 @@
         <v>date: '01/06/2018',</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H5" s="40" t="str">
         <f>IF(Sample!D5=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I5:$V5,"?????*")&gt;0,", ",""),IF(Sample!D5=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I5:$V5,"?????*")&gt;0,", ",""),IF(Sample!D5=1,H$103&amp;IF(COUNTIF(I5:$V5,"?????*")&gt;0,", ","")," ")))</f>
@@ -7890,19 +7901,19 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W5" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X5" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y5" s="41" t="str">
-        <f t="shared" ref="Y5:Y65" si="0">IF(COUNTA(B6)=1,","," ")</f>
+        <f t="shared" si="0"/>
         <v>,</v>
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C6" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C5)&amp;", "</f>
@@ -7921,7 +7932,7 @@
         <v>date: '01/08/2018',</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H6" s="40" t="str">
         <f>IF(Sample!D6=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I6:$V6,"?????*")&gt;0,", ",""),IF(Sample!D6=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I6:$V6,"?????*")&gt;0,", ",""),IF(Sample!D6=1,H$103&amp;IF(COUNTIF(I6:$V6,"?????*")&gt;0,", ","")," ")))</f>
@@ -7984,10 +7995,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W6" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X6" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y6" s="41" t="str">
         <f t="shared" si="0"/>
@@ -7996,7 +8007,7 @@
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C7" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C6)&amp;", "</f>
@@ -8015,7 +8026,7 @@
         <v>date: '01/08/2018',</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H7" s="40" t="str">
         <f>IF(Sample!D7=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I7:$V7,"?????*")&gt;0,", ",""),IF(Sample!D7=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I7:$V7,"?????*")&gt;0,", ",""),IF(Sample!D7=1,H$103&amp;IF(COUNTIF(I7:$V7,"?????*")&gt;0,", ","")," ")))</f>
@@ -8078,10 +8089,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W7" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X7" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y7" s="41" t="str">
         <f t="shared" si="0"/>
@@ -8090,7 +8101,7 @@
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B8" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C8" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C7)&amp;", "</f>
@@ -8109,7 +8120,7 @@
         <v>date: '01/11/2018',</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H8" s="40" t="str">
         <f>IF(Sample!D8=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I8:$V8,"?????*")&gt;0,", ",""),IF(Sample!D8=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I8:$V8,"?????*")&gt;0,", ",""),IF(Sample!D8=1,H$103&amp;IF(COUNTIF(I8:$V8,"?????*")&gt;0,", ","")," ")))</f>
@@ -8172,10 +8183,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W8" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X8" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y8" s="41" t="str">
         <f t="shared" si="0"/>
@@ -8184,7 +8195,7 @@
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C9" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C8)&amp;", "</f>
@@ -8203,7 +8214,7 @@
         <v>date: '01/11/2018',</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H9" s="40" t="str">
         <f>IF(Sample!D9=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I9:$V9,"?????*")&gt;0,", ",""),IF(Sample!D9=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I9:$V9,"?????*")&gt;0,", ",""),IF(Sample!D9=1,H$103&amp;IF(COUNTIF(I9:$V9,"?????*")&gt;0,", ","")," ")))</f>
@@ -8266,10 +8277,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W9" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X9" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y9" s="41" t="str">
         <f t="shared" si="0"/>
@@ -8278,7 +8289,7 @@
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C10" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C9)&amp;", "</f>
@@ -8297,7 +8308,7 @@
         <v>date: '01/11/2018',</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H10" s="40" t="str">
         <f>IF(Sample!D10=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I10:$V10,"?????*")&gt;0,", ",""),IF(Sample!D10=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I10:$V10,"?????*")&gt;0,", ",""),IF(Sample!D10=1,H$103&amp;IF(COUNTIF(I10:$V10,"?????*")&gt;0,", ","")," ")))</f>
@@ -8360,10 +8371,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W10" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X10" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y10" s="41" t="str">
         <f t="shared" si="0"/>
@@ -8372,7 +8383,7 @@
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B11" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C11" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C10)&amp;", "</f>
@@ -8391,7 +8402,7 @@
         <v>date: '01/13/2018',</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H11" s="40" t="str">
         <f>IF(Sample!D11=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I11:$V11,"?????*")&gt;0,", ",""),IF(Sample!D11=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I11:$V11,"?????*")&gt;0,", ",""),IF(Sample!D11=1,H$103&amp;IF(COUNTIF(I11:$V11,"?????*")&gt;0,", ","")," ")))</f>
@@ -8454,10 +8465,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W11" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X11" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="41" t="str">
         <f t="shared" si="0"/>
@@ -8466,7 +8477,7 @@
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B12" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C12" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C11)&amp;", "</f>
@@ -8485,7 +8496,7 @@
         <v>date: '01/13/2018',</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H12" s="40" t="str">
         <f>IF(Sample!D12=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I12:$V12,"?????*")&gt;0,", ",""),IF(Sample!D12=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I12:$V12,"?????*")&gt;0,", ",""),IF(Sample!D12=1,H$103&amp;IF(COUNTIF(I12:$V12,"?????*")&gt;0,", ","")," ")))</f>
@@ -8548,10 +8559,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W12" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X12" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y12" s="41" t="str">
         <f t="shared" si="0"/>
@@ -8560,7 +8571,7 @@
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B13" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C13" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C12)&amp;", "</f>
@@ -8579,7 +8590,7 @@
         <v>date: '01/16/2018',</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H13" s="40" t="str">
         <f>IF(Sample!D13=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I13:$V13,"?????*")&gt;0,", ",""),IF(Sample!D13=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I13:$V13,"?????*")&gt;0,", ",""),IF(Sample!D13=1,H$103&amp;IF(COUNTIF(I13:$V13,"?????*")&gt;0,", ","")," ")))</f>
@@ -8642,10 +8653,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W13" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X13" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y13" s="41" t="str">
         <f t="shared" si="0"/>
@@ -8654,7 +8665,7 @@
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B14" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C14" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C13)&amp;", "</f>
@@ -8673,7 +8684,7 @@
         <v>date: '01/16/2018',</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H14" s="40" t="str">
         <f>IF(Sample!D14=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I14:$V14,"?????*")&gt;0,", ",""),IF(Sample!D14=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I14:$V14,"?????*")&gt;0,", ",""),IF(Sample!D14=1,H$103&amp;IF(COUNTIF(I14:$V14,"?????*")&gt;0,", ","")," ")))</f>
@@ -8736,10 +8747,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W14" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X14" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y14" s="41" t="str">
         <f t="shared" si="0"/>
@@ -8748,7 +8759,7 @@
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B15" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C15" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C14)&amp;", "</f>
@@ -8767,7 +8778,7 @@
         <v>date: '01/17/2018',</v>
       </c>
       <c r="G15" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H15" s="40" t="str">
         <f>IF(Sample!D15=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I15:$V15,"?????*")&gt;0,", ",""),IF(Sample!D15=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I15:$V15,"?????*")&gt;0,", ",""),IF(Sample!D15=1,H$103&amp;IF(COUNTIF(I15:$V15,"?????*")&gt;0,", ","")," ")))</f>
@@ -8830,10 +8841,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W15" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X15" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y15" s="41" t="str">
         <f t="shared" si="0"/>
@@ -8842,7 +8853,7 @@
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B16" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C16" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C15)&amp;", "</f>
@@ -8861,7 +8872,7 @@
         <v>date: '01/19/2018',</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H16" s="40" t="str">
         <f>IF(Sample!D16=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I16:$V16,"?????*")&gt;0,", ",""),IF(Sample!D16=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I16:$V16,"?????*")&gt;0,", ",""),IF(Sample!D16=1,H$103&amp;IF(COUNTIF(I16:$V16,"?????*")&gt;0,", ","")," ")))</f>
@@ -8924,10 +8935,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W16" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X16" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y16" s="41" t="str">
         <f t="shared" si="0"/>
@@ -8936,7 +8947,7 @@
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B17" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C17" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C16)&amp;", "</f>
@@ -8955,7 +8966,7 @@
         <v>date: '01/21/2018',</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H17" s="40" t="str">
         <f>IF(Sample!D17=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I17:$V17,"?????*")&gt;0,", ",""),IF(Sample!D17=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I17:$V17,"?????*")&gt;0,", ",""),IF(Sample!D17=1,H$103&amp;IF(COUNTIF(I17:$V17,"?????*")&gt;0,", ","")," ")))</f>
@@ -9018,10 +9029,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W17" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X17" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y17" s="41" t="str">
         <f t="shared" si="0"/>
@@ -9030,7 +9041,7 @@
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B18" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C18" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C17)&amp;", "</f>
@@ -9049,7 +9060,7 @@
         <v>date: '01/21/2018',</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H18" s="40" t="str">
         <f>IF(Sample!D18=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I18:$V18,"?????*")&gt;0,", ",""),IF(Sample!D18=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I18:$V18,"?????*")&gt;0,", ",""),IF(Sample!D18=1,H$103&amp;IF(COUNTIF(I18:$V18,"?????*")&gt;0,", ","")," ")))</f>
@@ -9112,10 +9123,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W18" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X18" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y18" s="41" t="str">
         <f t="shared" si="0"/>
@@ -9124,7 +9135,7 @@
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B19" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C19" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C18)&amp;", "</f>
@@ -9143,7 +9154,7 @@
         <v>date: '01/24/2018',</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H19" s="40" t="str">
         <f>IF(Sample!D19=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I19:$V19,"?????*")&gt;0,", ",""),IF(Sample!D19=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I19:$V19,"?????*")&gt;0,", ",""),IF(Sample!D19=1,H$103&amp;IF(COUNTIF(I19:$V19,"?????*")&gt;0,", ","")," ")))</f>
@@ -9206,10 +9217,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W19" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X19" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y19" s="41" t="str">
         <f t="shared" si="0"/>
@@ -9218,7 +9229,7 @@
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B20" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C20" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C19)&amp;", "</f>
@@ -9237,7 +9248,7 @@
         <v>date: '01/24/2018',</v>
       </c>
       <c r="G20" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H20" s="40" t="str">
         <f>IF(Sample!D20=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I20:$V20,"?????*")&gt;0,", ",""),IF(Sample!D20=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I20:$V20,"?????*")&gt;0,", ",""),IF(Sample!D20=1,H$103&amp;IF(COUNTIF(I20:$V20,"?????*")&gt;0,", ","")," ")))</f>
@@ -9300,10 +9311,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W20" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X20" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y20" s="41" t="str">
         <f t="shared" si="0"/>
@@ -9312,7 +9323,7 @@
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B21" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C21" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C20)&amp;", "</f>
@@ -9331,7 +9342,7 @@
         <v>date: '01/24/2018',</v>
       </c>
       <c r="G21" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H21" s="40" t="str">
         <f>IF(Sample!D21=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I21:$V21,"?????*")&gt;0,", ",""),IF(Sample!D21=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I21:$V21,"?????*")&gt;0,", ",""),IF(Sample!D21=1,H$103&amp;IF(COUNTIF(I21:$V21,"?????*")&gt;0,", ","")," ")))</f>
@@ -9394,10 +9405,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W21" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X21" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y21" s="41" t="str">
         <f t="shared" si="0"/>
@@ -9406,7 +9417,7 @@
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C22" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C21)&amp;", "</f>
@@ -9425,7 +9436,7 @@
         <v>date: '01/26/2018',</v>
       </c>
       <c r="G22" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H22" s="40" t="str">
         <f>IF(Sample!D22=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I22:$V22,"?????*")&gt;0,", ",""),IF(Sample!D22=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I22:$V22,"?????*")&gt;0,", ",""),IF(Sample!D22=1,H$103&amp;IF(COUNTIF(I22:$V22,"?????*")&gt;0,", ","")," ")))</f>
@@ -9488,10 +9499,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W22" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X22" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y22" s="41" t="str">
         <f t="shared" si="0"/>
@@ -9500,7 +9511,7 @@
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C23" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C22)&amp;", "</f>
@@ -9519,7 +9530,7 @@
         <v>date: '01/26/2018',</v>
       </c>
       <c r="G23" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H23" s="40" t="str">
         <f>IF(Sample!D23=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I23:$V23,"?????*")&gt;0,", ",""),IF(Sample!D23=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I23:$V23,"?????*")&gt;0,", ",""),IF(Sample!D23=1,H$103&amp;IF(COUNTIF(I23:$V23,"?????*")&gt;0,", ","")," ")))</f>
@@ -9582,10 +9593,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W23" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X23" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y23" s="41" t="str">
         <f t="shared" si="0"/>
@@ -9594,7 +9605,7 @@
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C24" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C23)&amp;", "</f>
@@ -9613,7 +9624,7 @@
         <v>date: '01/28/2018',</v>
       </c>
       <c r="G24" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H24" s="40" t="str">
         <f>IF(Sample!D24=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I24:$V24,"?????*")&gt;0,", ",""),IF(Sample!D24=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I24:$V24,"?????*")&gt;0,", ",""),IF(Sample!D24=1,H$103&amp;IF(COUNTIF(I24:$V24,"?????*")&gt;0,", ","")," ")))</f>
@@ -9676,10 +9687,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W24" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X24" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y24" s="41" t="str">
         <f t="shared" si="0"/>
@@ -9688,7 +9699,7 @@
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B25" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C25" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C24)&amp;", "</f>
@@ -9707,7 +9718,7 @@
         <v>date: '01/28/2018',</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H25" s="40" t="str">
         <f>IF(Sample!D25=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I25:$V25,"?????*")&gt;0,", ",""),IF(Sample!D25=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I25:$V25,"?????*")&gt;0,", ",""),IF(Sample!D25=1,H$103&amp;IF(COUNTIF(I25:$V25,"?????*")&gt;0,", ","")," ")))</f>
@@ -9770,10 +9781,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W25" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X25" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y25" s="41" t="str">
         <f t="shared" si="0"/>
@@ -9782,7 +9793,7 @@
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B26" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C26" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C25)&amp;", "</f>
@@ -9801,7 +9812,7 @@
         <v>date: '01/28/2018',</v>
       </c>
       <c r="G26" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H26" s="40" t="str">
         <f>IF(Sample!D26=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I26:$V26,"?????*")&gt;0,", ",""),IF(Sample!D26=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I26:$V26,"?????*")&gt;0,", ",""),IF(Sample!D26=1,H$103&amp;IF(COUNTIF(I26:$V26,"?????*")&gt;0,", ","")," ")))</f>
@@ -9864,10 +9875,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W26" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X26" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y26" s="41" t="str">
         <f t="shared" si="0"/>
@@ -9876,7 +9887,7 @@
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B27" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C27" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C26)&amp;", "</f>
@@ -9895,7 +9906,7 @@
         <v>date: '01/28/2018',</v>
       </c>
       <c r="G27" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H27" s="40" t="str">
         <f>IF(Sample!D27=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I27:$V27,"?????*")&gt;0,", ",""),IF(Sample!D27=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I27:$V27,"?????*")&gt;0,", ",""),IF(Sample!D27=1,H$103&amp;IF(COUNTIF(I27:$V27,"?????*")&gt;0,", ","")," ")))</f>
@@ -9958,10 +9969,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W27" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X27" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y27" s="41" t="str">
         <f t="shared" si="0"/>
@@ -9970,7 +9981,7 @@
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B28" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C28" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C27)&amp;", "</f>
@@ -9989,7 +10000,7 @@
         <v>date: '01/30/2018',</v>
       </c>
       <c r="G28" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H28" s="40" t="str">
         <f>IF(Sample!D28=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I28:$V28,"?????*")&gt;0,", ",""),IF(Sample!D28=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I28:$V28,"?????*")&gt;0,", ",""),IF(Sample!D28=1,H$103&amp;IF(COUNTIF(I28:$V28,"?????*")&gt;0,", ","")," ")))</f>
@@ -10052,10 +10063,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W28" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X28" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y28" s="41" t="str">
         <f t="shared" si="0"/>
@@ -10064,7 +10075,7 @@
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B29" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C29" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C28)&amp;", "</f>
@@ -10083,7 +10094,7 @@
         <v>date: '02/01/2018',</v>
       </c>
       <c r="G29" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H29" s="40" t="str">
         <f>IF(Sample!D29=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I29:$V29,"?????*")&gt;0,", ",""),IF(Sample!D29=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I29:$V29,"?????*")&gt;0,", ",""),IF(Sample!D29=1,H$103&amp;IF(COUNTIF(I29:$V29,"?????*")&gt;0,", ","")," ")))</f>
@@ -10146,10 +10157,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W29" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X29" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y29" s="41" t="str">
         <f t="shared" si="0"/>
@@ -10158,7 +10169,7 @@
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B30" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C30" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C29)&amp;", "</f>
@@ -10177,7 +10188,7 @@
         <v>date: '02/01/2018',</v>
       </c>
       <c r="G30" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H30" s="40" t="str">
         <f>IF(Sample!D30=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I30:$V30,"?????*")&gt;0,", ",""),IF(Sample!D30=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I30:$V30,"?????*")&gt;0,", ",""),IF(Sample!D30=1,H$103&amp;IF(COUNTIF(I30:$V30,"?????*")&gt;0,", ","")," ")))</f>
@@ -10240,10 +10251,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W30" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X30" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y30" s="41" t="str">
         <f t="shared" si="0"/>
@@ -10252,7 +10263,7 @@
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B31" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C31" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C30)&amp;", "</f>
@@ -10271,7 +10282,7 @@
         <v>date: '02/03/2018',</v>
       </c>
       <c r="G31" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H31" s="40" t="str">
         <f>IF(Sample!D31=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I31:$V31,"?????*")&gt;0,", ",""),IF(Sample!D31=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I31:$V31,"?????*")&gt;0,", ",""),IF(Sample!D31=1,H$103&amp;IF(COUNTIF(I31:$V31,"?????*")&gt;0,", ","")," ")))</f>
@@ -10334,10 +10345,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W31" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X31" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y31" s="41" t="str">
         <f t="shared" si="0"/>
@@ -10346,7 +10357,7 @@
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B32" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C32" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C31)&amp;", "</f>
@@ -10365,7 +10376,7 @@
         <v>date: '02/03/2018',</v>
       </c>
       <c r="G32" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H32" s="40" t="str">
         <f>IF(Sample!D32=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I32:$V32,"?????*")&gt;0,", ",""),IF(Sample!D32=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I32:$V32,"?????*")&gt;0,", ",""),IF(Sample!D32=1,H$103&amp;IF(COUNTIF(I32:$V32,"?????*")&gt;0,", ","")," ")))</f>
@@ -10428,10 +10439,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W32" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X32" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y32" s="41" t="str">
         <f t="shared" si="0"/>
@@ -10440,7 +10451,7 @@
     </row>
     <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C33" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C32)&amp;", "</f>
@@ -10459,7 +10470,7 @@
         <v>date: '02/03/2018',</v>
       </c>
       <c r="G33" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H33" s="40" t="str">
         <f>IF(Sample!D33=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I33:$V33,"?????*")&gt;0,", ",""),IF(Sample!D33=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I33:$V33,"?????*")&gt;0,", ",""),IF(Sample!D33=1,H$103&amp;IF(COUNTIF(I33:$V33,"?????*")&gt;0,", ","")," ")))</f>
@@ -10522,10 +10533,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W33" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X33" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y33" s="41" t="str">
         <f t="shared" si="0"/>
@@ -10534,7 +10545,7 @@
     </row>
     <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C34" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C33)&amp;", "</f>
@@ -10553,7 +10564,7 @@
         <v>date: '02/06/2018',</v>
       </c>
       <c r="G34" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H34" s="40" t="str">
         <f>IF(Sample!D34=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I34:$V34,"?????*")&gt;0,", ",""),IF(Sample!D34=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I34:$V34,"?????*")&gt;0,", ",""),IF(Sample!D34=1,H$103&amp;IF(COUNTIF(I34:$V34,"?????*")&gt;0,", ","")," ")))</f>
@@ -10616,10 +10627,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W34" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X34" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y34" s="41" t="str">
         <f>IF(COUNTA(#REF!)=1,","," ")</f>
@@ -10628,7 +10639,7 @@
     </row>
     <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C35" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C34)&amp;", "</f>
@@ -10647,7 +10658,7 @@
         <v>date: '02/06/2018',</v>
       </c>
       <c r="G35" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H35" s="40" t="str">
         <f>IF(Sample!D35=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I35:$V35,"?????*")&gt;0,", ",""),IF(Sample!D35=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I35:$V35,"?????*")&gt;0,", ",""),IF(Sample!D35=1,H$103&amp;IF(COUNTIF(I35:$V35,"?????*")&gt;0,", ","")," ")))</f>
@@ -10710,10 +10721,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W35" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X35" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y35" s="41" t="str">
         <f t="shared" si="0"/>
@@ -10722,7 +10733,7 @@
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B36" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C36" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C35)&amp;", "</f>
@@ -10741,7 +10752,7 @@
         <v>date: '02/06/2018',</v>
       </c>
       <c r="G36" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H36" s="40" t="str">
         <f>IF(Sample!D36=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I36:$V36,"?????*")&gt;0,", ",""),IF(Sample!D36=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I36:$V36,"?????*")&gt;0,", ",""),IF(Sample!D36=1,H$103&amp;IF(COUNTIF(I36:$V36,"?????*")&gt;0,", ","")," ")))</f>
@@ -10804,10 +10815,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W36" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X36" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y36" s="41" t="str">
         <f t="shared" si="0"/>
@@ -10816,7 +10827,7 @@
     </row>
     <row r="37" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B37" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C37" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C36)&amp;", "</f>
@@ -10835,7 +10846,7 @@
         <v>date: '02/06/2018',</v>
       </c>
       <c r="G37" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H37" s="40" t="str">
         <f>IF(Sample!D37=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I37:$V37,"?????*")&gt;0,", ",""),IF(Sample!D37=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I37:$V37,"?????*")&gt;0,", ",""),IF(Sample!D37=1,H$103&amp;IF(COUNTIF(I37:$V37,"?????*")&gt;0,", ","")," ")))</f>
@@ -10898,10 +10909,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W37" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X37" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y37" s="41" t="str">
         <f t="shared" si="0"/>
@@ -10910,7 +10921,7 @@
     </row>
     <row r="38" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B38" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C38" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C37)&amp;", "</f>
@@ -10929,7 +10940,7 @@
         <v>date: '02/08/2018',</v>
       </c>
       <c r="G38" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H38" s="40" t="str">
         <f>IF(Sample!D38=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I38:$V38,"?????*")&gt;0,", ",""),IF(Sample!D38=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I38:$V38,"?????*")&gt;0,", ",""),IF(Sample!D38=1,H$103&amp;IF(COUNTIF(I38:$V38,"?????*")&gt;0,", ","")," ")))</f>
@@ -10992,10 +11003,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W38" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X38" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y38" s="41" t="str">
         <f t="shared" si="0"/>
@@ -11004,7 +11015,7 @@
     </row>
     <row r="39" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B39" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C39" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C38)&amp;", "</f>
@@ -11023,7 +11034,7 @@
         <v>date: '02/08/2018',</v>
       </c>
       <c r="G39" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H39" s="40" t="str">
         <f>IF(Sample!D39=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I39:$V39,"?????*")&gt;0,", ",""),IF(Sample!D39=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I39:$V39,"?????*")&gt;0,", ",""),IF(Sample!D39=1,H$103&amp;IF(COUNTIF(I39:$V39,"?????*")&gt;0,", ","")," ")))</f>
@@ -11086,10 +11097,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W39" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X39" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y39" s="41" t="str">
         <f t="shared" si="0"/>
@@ -11098,7 +11109,7 @@
     </row>
     <row r="40" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B40" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C40" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C39)&amp;", "</f>
@@ -11117,7 +11128,7 @@
         <v>date: '02/11/2018',</v>
       </c>
       <c r="G40" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H40" s="40" t="str">
         <f>IF(Sample!D40=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I40:$V40,"?????*")&gt;0,", ",""),IF(Sample!D40=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I40:$V40,"?????*")&gt;0,", ",""),IF(Sample!D40=1,H$103&amp;IF(COUNTIF(I40:$V40,"?????*")&gt;0,", ","")," ")))</f>
@@ -11180,10 +11191,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W40" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X40" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y40" s="41" t="str">
         <f t="shared" si="0"/>
@@ -11192,7 +11203,7 @@
     </row>
     <row r="41" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B41" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C41" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C40)&amp;", "</f>
@@ -11211,7 +11222,7 @@
         <v>date: '02/15/2018',</v>
       </c>
       <c r="G41" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H41" s="40" t="str">
         <f>IF(Sample!D41=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I41:$V41,"?????*")&gt;0,", ",""),IF(Sample!D41=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I41:$V41,"?????*")&gt;0,", ",""),IF(Sample!D41=1,H$103&amp;IF(COUNTIF(I41:$V41,"?????*")&gt;0,", ","")," ")))</f>
@@ -11274,10 +11285,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W41" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X41" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y41" s="41" t="str">
         <f t="shared" si="0"/>
@@ -11286,7 +11297,7 @@
     </row>
     <row r="42" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B42" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C41)&amp;", "</f>
@@ -11305,7 +11316,7 @@
         <v>date: '02/15/2018',</v>
       </c>
       <c r="G42" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H42" s="40" t="str">
         <f>IF(Sample!D42=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I42:$V42,"?????*")&gt;0,", ",""),IF(Sample!D42=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I42:$V42,"?????*")&gt;0,", ",""),IF(Sample!D42=1,H$103&amp;IF(COUNTIF(I42:$V42,"?????*")&gt;0,", ","")," ")))</f>
@@ -11368,10 +11379,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W42" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X42" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y42" s="41" t="str">
         <f t="shared" si="0"/>
@@ -11380,7 +11391,7 @@
     </row>
     <row r="43" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B43" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C43" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C42)&amp;", "</f>
@@ -11399,7 +11410,7 @@
         <v>date: '02/18/2018',</v>
       </c>
       <c r="G43" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H43" s="40" t="str">
         <f>IF(Sample!D43=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I43:$V43,"?????*")&gt;0,", ",""),IF(Sample!D43=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I43:$V43,"?????*")&gt;0,", ",""),IF(Sample!D43=1,H$103&amp;IF(COUNTIF(I43:$V43,"?????*")&gt;0,", ","")," ")))</f>
@@ -11462,10 +11473,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W43" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X43" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y43" s="41" t="str">
         <f t="shared" si="0"/>
@@ -11474,7 +11485,7 @@
     </row>
     <row r="44" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B44" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C44" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C43)&amp;", "</f>
@@ -11493,7 +11504,7 @@
         <v>date: '02/18/2018',</v>
       </c>
       <c r="G44" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H44" s="40" t="str">
         <f>IF(Sample!D44=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I44:$V44,"?????*")&gt;0,", ",""),IF(Sample!D44=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I44:$V44,"?????*")&gt;0,", ",""),IF(Sample!D44=1,H$103&amp;IF(COUNTIF(I44:$V44,"?????*")&gt;0,", ","")," ")))</f>
@@ -11556,10 +11567,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W44" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X44" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y44" s="41" t="str">
         <f t="shared" si="0"/>
@@ -11568,7 +11579,7 @@
     </row>
     <row r="45" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B45" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C45" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C44)&amp;", "</f>
@@ -11587,7 +11598,7 @@
         <v>date: '02/18/2018',</v>
       </c>
       <c r="G45" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H45" s="40" t="str">
         <f>IF(Sample!D45=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I45:$V45,"?????*")&gt;0,", ",""),IF(Sample!D45=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I45:$V45,"?????*")&gt;0,", ",""),IF(Sample!D45=1,H$103&amp;IF(COUNTIF(I45:$V45,"?????*")&gt;0,", ","")," ")))</f>
@@ -11650,10 +11661,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W45" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X45" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y45" s="41" t="str">
         <f t="shared" si="0"/>
@@ -11662,7 +11673,7 @@
     </row>
     <row r="46" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B46" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C46" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C45)&amp;", "</f>
@@ -11681,7 +11692,7 @@
         <v>date: '02/18/2018',</v>
       </c>
       <c r="G46" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H46" s="40" t="str">
         <f>IF(Sample!D46=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I46:$V46,"?????*")&gt;0,", ",""),IF(Sample!D46=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I46:$V46,"?????*")&gt;0,", ",""),IF(Sample!D46=1,H$103&amp;IF(COUNTIF(I46:$V46,"?????*")&gt;0,", ","")," ")))</f>
@@ -11744,10 +11755,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W46" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X46" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y46" s="41" t="str">
         <f t="shared" si="0"/>
@@ -11756,7 +11767,7 @@
     </row>
     <row r="47" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B47" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C47" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C46)&amp;", "</f>
@@ -11775,7 +11786,7 @@
         <v>date: '02/18/2018',</v>
       </c>
       <c r="G47" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H47" s="40" t="str">
         <f>IF(Sample!D47=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I47:$V47,"?????*")&gt;0,", ",""),IF(Sample!D47=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I47:$V47,"?????*")&gt;0,", ",""),IF(Sample!D47=1,H$103&amp;IF(COUNTIF(I47:$V47,"?????*")&gt;0,", ","")," ")))</f>
@@ -11838,10 +11849,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W47" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X47" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y47" s="41" t="str">
         <f t="shared" si="0"/>
@@ -11850,7 +11861,7 @@
     </row>
     <row r="48" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B48" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C48" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C47)&amp;", "</f>
@@ -11869,7 +11880,7 @@
         <v>date: '02/18/2018',</v>
       </c>
       <c r="G48" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H48" s="40" t="str">
         <f>IF(Sample!D48=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I48:$V48,"?????*")&gt;0,", ",""),IF(Sample!D48=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I48:$V48,"?????*")&gt;0,", ",""),IF(Sample!D48=1,H$103&amp;IF(COUNTIF(I48:$V48,"?????*")&gt;0,", ","")," ")))</f>
@@ -11932,10 +11943,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W48" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X48" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y48" s="41" t="str">
         <f t="shared" si="0"/>
@@ -11944,7 +11955,7 @@
     </row>
     <row r="49" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B49" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C49" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C48)&amp;", "</f>
@@ -11963,7 +11974,7 @@
         <v>date: '02/22/2018',</v>
       </c>
       <c r="G49" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H49" s="40" t="str">
         <f>IF(Sample!D49=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I49:$V49,"?????*")&gt;0,", ",""),IF(Sample!D49=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I49:$V49,"?????*")&gt;0,", ",""),IF(Sample!D49=1,H$103&amp;IF(COUNTIF(I49:$V49,"?????*")&gt;0,", ","")," ")))</f>
@@ -12026,10 +12037,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W49" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X49" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y49" s="41" t="str">
         <f t="shared" si="0"/>
@@ -12038,7 +12049,7 @@
     </row>
     <row r="50" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B50" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C50" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C49)&amp;", "</f>
@@ -12057,7 +12068,7 @@
         <v>date: '02/22/2018',</v>
       </c>
       <c r="G50" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H50" s="40" t="str">
         <f>IF(Sample!D50=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I50:$V50,"?????*")&gt;0,", ",""),IF(Sample!D50=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I50:$V50,"?????*")&gt;0,", ",""),IF(Sample!D50=1,H$103&amp;IF(COUNTIF(I50:$V50,"?????*")&gt;0,", ","")," ")))</f>
@@ -12120,10 +12131,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W50" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X50" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y50" s="41" t="str">
         <f t="shared" si="0"/>
@@ -12132,7 +12143,7 @@
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B51" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C51" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C50)&amp;", "</f>
@@ -12151,7 +12162,7 @@
         <v>date: '02/22/2018',</v>
       </c>
       <c r="G51" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H51" s="40" t="str">
         <f>IF(Sample!D51=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I51:$V51,"?????*")&gt;0,", ",""),IF(Sample!D51=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I51:$V51,"?????*")&gt;0,", ",""),IF(Sample!D51=1,H$103&amp;IF(COUNTIF(I51:$V51,"?????*")&gt;0,", ","")," ")))</f>
@@ -12214,10 +12225,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W51" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X51" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y51" s="41" t="str">
         <f t="shared" si="0"/>
@@ -12226,7 +12237,7 @@
     </row>
     <row r="52" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B52" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C52" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C51)&amp;", "</f>
@@ -12245,7 +12256,7 @@
         <v>date: '02/25/2018',</v>
       </c>
       <c r="G52" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H52" s="40" t="str">
         <f>IF(Sample!D52=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I52:$V52,"?????*")&gt;0,", ",""),IF(Sample!D52=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I52:$V52,"?????*")&gt;0,", ",""),IF(Sample!D52=1,H$103&amp;IF(COUNTIF(I52:$V52,"?????*")&gt;0,", ","")," ")))</f>
@@ -12308,10 +12319,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W52" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X52" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y52" s="41" t="str">
         <f t="shared" si="0"/>
@@ -12320,7 +12331,7 @@
     </row>
     <row r="53" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B53" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C53" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C52)&amp;", "</f>
@@ -12339,7 +12350,7 @@
         <v>date: '02/25/2018',</v>
       </c>
       <c r="G53" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H53" s="40" t="str">
         <f>IF(Sample!D53=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I53:$V53,"?????*")&gt;0,", ",""),IF(Sample!D53=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I53:$V53,"?????*")&gt;0,", ",""),IF(Sample!D53=1,H$103&amp;IF(COUNTIF(I53:$V53,"?????*")&gt;0,", ","")," ")))</f>
@@ -12402,10 +12413,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W53" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X53" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="41" t="str">
         <f t="shared" si="0"/>
@@ -12414,7 +12425,7 @@
     </row>
     <row r="54" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B54" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C54" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C53)&amp;", "</f>
@@ -12433,7 +12444,7 @@
         <v>date: '02/25/2018',</v>
       </c>
       <c r="G54" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H54" s="40" t="str">
         <f>IF(Sample!D54=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I54:$V54,"?????*")&gt;0,", ",""),IF(Sample!D54=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I54:$V54,"?????*")&gt;0,", ",""),IF(Sample!D54=1,H$103&amp;IF(COUNTIF(I54:$V54,"?????*")&gt;0,", ","")," ")))</f>
@@ -12496,10 +12507,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W54" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X54" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y54" s="41" t="str">
         <f t="shared" si="0"/>
@@ -12508,7 +12519,7 @@
     </row>
     <row r="55" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B55" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C55" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C54)&amp;", "</f>
@@ -12527,7 +12538,7 @@
         <v>date: '02/25/2018',</v>
       </c>
       <c r="G55" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H55" s="40" t="str">
         <f>IF(Sample!D55=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I55:$V55,"?????*")&gt;0,", ",""),IF(Sample!D55=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I55:$V55,"?????*")&gt;0,", ",""),IF(Sample!D55=1,H$103&amp;IF(COUNTIF(I55:$V55,"?????*")&gt;0,", ","")," ")))</f>
@@ -12590,10 +12601,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W55" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X55" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y55" s="41" t="str">
         <f t="shared" si="0"/>
@@ -12602,7 +12613,7 @@
     </row>
     <row r="56" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B56" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C56" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C55)&amp;", "</f>
@@ -12621,7 +12632,7 @@
         <v>date: '02/25/2018',</v>
       </c>
       <c r="G56" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H56" s="40" t="str">
         <f>IF(Sample!D56=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I56:$V56,"?????*")&gt;0,", ",""),IF(Sample!D56=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I56:$V56,"?????*")&gt;0,", ",""),IF(Sample!D56=1,H$103&amp;IF(COUNTIF(I56:$V56,"?????*")&gt;0,", ","")," ")))</f>
@@ -12684,10 +12695,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W56" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X56" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y56" s="41" t="str">
         <f t="shared" si="0"/>
@@ -12696,7 +12707,7 @@
     </row>
     <row r="57" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B57" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C57" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C56)&amp;", "</f>
@@ -12715,7 +12726,7 @@
         <v>date: '02/25/2018',</v>
       </c>
       <c r="G57" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H57" s="40" t="str">
         <f>IF(Sample!D57=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I57:$V57,"?????*")&gt;0,", ",""),IF(Sample!D57=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I57:$V57,"?????*")&gt;0,", ",""),IF(Sample!D57=1,H$103&amp;IF(COUNTIF(I57:$V57,"?????*")&gt;0,", ","")," ")))</f>
@@ -12778,10 +12789,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W57" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X57" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y57" s="41" t="str">
         <f t="shared" si="0"/>
@@ -12790,7 +12801,7 @@
     </row>
     <row r="58" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B58" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C58" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C57)&amp;", "</f>
@@ -12809,7 +12820,7 @@
         <v>date: '02/27/2018',</v>
       </c>
       <c r="G58" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H58" s="40" t="str">
         <f>IF(Sample!D58=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I58:$V58,"?????*")&gt;0,", ",""),IF(Sample!D58=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I58:$V58,"?????*")&gt;0,", ",""),IF(Sample!D58=1,H$103&amp;IF(COUNTIF(I58:$V58,"?????*")&gt;0,", ","")," ")))</f>
@@ -12872,10 +12883,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W58" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X58" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y58" s="41" t="str">
         <f t="shared" si="0"/>
@@ -12884,7 +12895,7 @@
     </row>
     <row r="59" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B59" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C59" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C58)&amp;", "</f>
@@ -12903,7 +12914,7 @@
         <v>date: '02/28/2018',</v>
       </c>
       <c r="G59" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H59" s="40" t="str">
         <f>IF(Sample!D59=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I59:$V59,"?????*")&gt;0,", ",""),IF(Sample!D59=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I59:$V59,"?????*")&gt;0,", ",""),IF(Sample!D59=1,H$103&amp;IF(COUNTIF(I59:$V59,"?????*")&gt;0,", ","")," ")))</f>
@@ -12966,10 +12977,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W59" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X59" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y59" s="41" t="str">
         <f t="shared" si="0"/>
@@ -12978,7 +12989,7 @@
     </row>
     <row r="60" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B60" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C60" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C59)&amp;", "</f>
@@ -12997,7 +13008,7 @@
         <v>date: '02/28/2018',</v>
       </c>
       <c r="G60" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H60" s="40" t="str">
         <f>IF(Sample!D60=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I60:$V60,"?????*")&gt;0,", ",""),IF(Sample!D60=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I60:$V60,"?????*")&gt;0,", ",""),IF(Sample!D60=1,H$103&amp;IF(COUNTIF(I60:$V60,"?????*")&gt;0,", ","")," ")))</f>
@@ -13060,10 +13071,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W60" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X60" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y60" s="41" t="str">
         <f t="shared" si="0"/>
@@ -13072,7 +13083,7 @@
     </row>
     <row r="61" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B61" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C61" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C60)&amp;", "</f>
@@ -13091,7 +13102,7 @@
         <v>date: '03/02/2018',</v>
       </c>
       <c r="G61" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H61" s="40" t="str">
         <f>IF(Sample!D61=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I61:$V61,"?????*")&gt;0,", ",""),IF(Sample!D61=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I61:$V61,"?????*")&gt;0,", ",""),IF(Sample!D61=1,H$103&amp;IF(COUNTIF(I61:$V61,"?????*")&gt;0,", ","")," ")))</f>
@@ -13154,10 +13165,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W61" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X61" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y61" s="41" t="str">
         <f t="shared" si="0"/>
@@ -13166,7 +13177,7 @@
     </row>
     <row r="62" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B62" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C62" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C61)&amp;", "</f>
@@ -13185,7 +13196,7 @@
         <v>date: '03/02/2018',</v>
       </c>
       <c r="G62" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H62" s="40" t="str">
         <f>IF(Sample!D62=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I62:$V62,"?????*")&gt;0,", ",""),IF(Sample!D62=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I62:$V62,"?????*")&gt;0,", ",""),IF(Sample!D62=1,H$103&amp;IF(COUNTIF(I62:$V62,"?????*")&gt;0,", ","")," ")))</f>
@@ -13248,10 +13259,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W62" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X62" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y62" s="41" t="str">
         <f t="shared" si="0"/>
@@ -13260,7 +13271,7 @@
     </row>
     <row r="63" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B63" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C63" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C62)&amp;", "</f>
@@ -13279,7 +13290,7 @@
         <v>date: '03/02/2018',</v>
       </c>
       <c r="G63" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H63" s="40" t="str">
         <f>IF(Sample!D63=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I63:$V63,"?????*")&gt;0,", ",""),IF(Sample!D63=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I63:$V63,"?????*")&gt;0,", ",""),IF(Sample!D63=1,H$103&amp;IF(COUNTIF(I63:$V63,"?????*")&gt;0,", ","")," ")))</f>
@@ -13342,10 +13353,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W63" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X63" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y63" s="41" t="str">
         <f t="shared" si="0"/>
@@ -13354,7 +13365,7 @@
     </row>
     <row r="64" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B64" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C64" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C63)&amp;", "</f>
@@ -13373,7 +13384,7 @@
         <v>date: '03/02/2018',</v>
       </c>
       <c r="G64" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H64" s="40" t="str">
         <f>IF(Sample!D64=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I64:$V64,"?????*")&gt;0,", ",""),IF(Sample!D64=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I64:$V64,"?????*")&gt;0,", ",""),IF(Sample!D64=1,H$103&amp;IF(COUNTIF(I64:$V64,"?????*")&gt;0,", ","")," ")))</f>
@@ -13436,10 +13447,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W64" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X64" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y64" s="41" t="str">
         <f t="shared" si="0"/>
@@ -13448,7 +13459,7 @@
     </row>
     <row r="65" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B65" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C65" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C64)&amp;", "</f>
@@ -13467,7 +13478,7 @@
         <v>date: '03/04/2018',</v>
       </c>
       <c r="G65" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H65" s="40" t="str">
         <f>IF(Sample!D65=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I65:$V65,"?????*")&gt;0,", ",""),IF(Sample!D65=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I65:$V65,"?????*")&gt;0,", ",""),IF(Sample!D65=1,H$103&amp;IF(COUNTIF(I65:$V65,"?????*")&gt;0,", ","")," ")))</f>
@@ -13530,10 +13541,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W65" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X65" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y65" s="41" t="str">
         <f t="shared" si="0"/>
@@ -13542,7 +13553,7 @@
     </row>
     <row r="66" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B66" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C66" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C65)&amp;", "</f>
@@ -13561,7 +13572,7 @@
         <v>date: '03/04/2018',</v>
       </c>
       <c r="G66" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H66" s="40" t="str">
         <f>IF(Sample!D66=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I66:$V66,"?????*")&gt;0,", ",""),IF(Sample!D66=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I66:$V66,"?????*")&gt;0,", ",""),IF(Sample!D66=1,H$103&amp;IF(COUNTIF(I66:$V66,"?????*")&gt;0,", ","")," ")))</f>
@@ -13624,10 +13635,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W66" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X66" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="41" t="str">
         <f t="shared" ref="Y66:Y95" si="1">IF(COUNTA(B67)=1,","," ")</f>
@@ -13636,7 +13647,7 @@
     </row>
     <row r="67" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B67" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C67" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C66)&amp;", "</f>
@@ -13655,7 +13666,7 @@
         <v>date: '03/06/2018',</v>
       </c>
       <c r="G67" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H67" s="40" t="str">
         <f>IF(Sample!D67=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I67:$V67,"?????*")&gt;0,", ",""),IF(Sample!D67=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I67:$V67,"?????*")&gt;0,", ",""),IF(Sample!D67=1,H$103&amp;IF(COUNTIF(I67:$V67,"?????*")&gt;0,", ","")," ")))</f>
@@ -13718,10 +13729,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W67" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X67" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y67" s="41" t="str">
         <f t="shared" si="1"/>
@@ -13730,7 +13741,7 @@
     </row>
     <row r="68" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B68" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C68" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C67)&amp;", "</f>
@@ -13749,7 +13760,7 @@
         <v>date: '03/06/2018',</v>
       </c>
       <c r="G68" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H68" s="40" t="str">
         <f>IF(Sample!D68=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I68:$V68,"?????*")&gt;0,", ",""),IF(Sample!D68=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I68:$V68,"?????*")&gt;0,", ",""),IF(Sample!D68=1,H$103&amp;IF(COUNTIF(I68:$V68,"?????*")&gt;0,", ","")," ")))</f>
@@ -13812,10 +13823,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W68" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X68" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y68" s="41" t="str">
         <f t="shared" si="1"/>
@@ -13824,7 +13835,7 @@
     </row>
     <row r="69" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B69" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C69" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C68)&amp;", "</f>
@@ -13843,7 +13854,7 @@
         <v>date: '03/06/2018',</v>
       </c>
       <c r="G69" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H69" s="40" t="str">
         <f>IF(Sample!D69=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I69:$V69,"?????*")&gt;0,", ",""),IF(Sample!D69=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I69:$V69,"?????*")&gt;0,", ",""),IF(Sample!D69=1,H$103&amp;IF(COUNTIF(I69:$V69,"?????*")&gt;0,", ","")," ")))</f>
@@ -13906,10 +13917,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W69" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X69" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y69" s="41" t="str">
         <f>IF(COUNTA(#REF!)=1,","," ")</f>
@@ -13918,7 +13929,7 @@
     </row>
     <row r="70" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B70" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C70" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C69)&amp;", "</f>
@@ -13937,7 +13948,7 @@
         <v>date: '03/07/2018',</v>
       </c>
       <c r="G70" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H70" s="40" t="str">
         <f>IF(Sample!D70=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I70:$V70,"?????*")&gt;0,", ",""),IF(Sample!D70=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I70:$V70,"?????*")&gt;0,", ",""),IF(Sample!D70=1,H$103&amp;IF(COUNTIF(I70:$V70,"?????*")&gt;0,", ","")," ")))</f>
@@ -14000,10 +14011,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W70" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X70" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y70" s="41" t="str">
         <f t="shared" si="1"/>
@@ -14012,7 +14023,7 @@
     </row>
     <row r="71" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B71" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C71" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C70)&amp;", "</f>
@@ -14031,7 +14042,7 @@
         <v>date: '03/09/2018',</v>
       </c>
       <c r="G71" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H71" s="40" t="str">
         <f>IF(Sample!D71=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I71:$V71,"?????*")&gt;0,", ",""),IF(Sample!D71=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I71:$V71,"?????*")&gt;0,", ",""),IF(Sample!D71=1,H$103&amp;IF(COUNTIF(I71:$V71,"?????*")&gt;0,", ","")," ")))</f>
@@ -14094,10 +14105,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W71" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X71" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y71" s="41" t="str">
         <f t="shared" si="1"/>
@@ -14106,7 +14117,7 @@
     </row>
     <row r="72" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B72" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C72" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C71)&amp;", "</f>
@@ -14125,7 +14136,7 @@
         <v>date: '03/09/2018',</v>
       </c>
       <c r="G72" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H72" s="40" t="str">
         <f>IF(Sample!D72=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I72:$V72,"?????*")&gt;0,", ",""),IF(Sample!D72=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I72:$V72,"?????*")&gt;0,", ",""),IF(Sample!D72=1,H$103&amp;IF(COUNTIF(I72:$V72,"?????*")&gt;0,", ","")," ")))</f>
@@ -14188,10 +14199,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W72" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X72" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y72" s="41" t="str">
         <f t="shared" si="1"/>
@@ -14200,7 +14211,7 @@
     </row>
     <row r="73" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B73" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C73" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C72)&amp;", "</f>
@@ -14219,7 +14230,7 @@
         <v>date: '03/11/2018',</v>
       </c>
       <c r="G73" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H73" s="40" t="str">
         <f>IF(Sample!D73=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I73:$V73,"?????*")&gt;0,", ",""),IF(Sample!D73=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I73:$V73,"?????*")&gt;0,", ",""),IF(Sample!D73=1,H$103&amp;IF(COUNTIF(I73:$V73,"?????*")&gt;0,", ","")," ")))</f>
@@ -14282,10 +14293,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W73" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X73" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y73" s="41" t="str">
         <f t="shared" si="1"/>
@@ -14294,7 +14305,7 @@
     </row>
     <row r="74" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B74" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C74" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C73)&amp;", "</f>
@@ -14313,7 +14324,7 @@
         <v>date: '03/11/2018',</v>
       </c>
       <c r="G74" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H74" s="40" t="str">
         <f>IF(Sample!D74=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I74:$V74,"?????*")&gt;0,", ",""),IF(Sample!D74=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I74:$V74,"?????*")&gt;0,", ",""),IF(Sample!D74=1,H$103&amp;IF(COUNTIF(I74:$V74,"?????*")&gt;0,", ","")," ")))</f>
@@ -14376,10 +14387,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W74" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X74" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y74" s="41" t="str">
         <f t="shared" si="1"/>
@@ -14388,7 +14399,7 @@
     </row>
     <row r="75" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B75" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C75" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C74)&amp;", "</f>
@@ -14407,7 +14418,7 @@
         <v>date: '03/14/2018',</v>
       </c>
       <c r="G75" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H75" s="40" t="str">
         <f>IF(Sample!D75=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I75:$V75,"?????*")&gt;0,", ",""),IF(Sample!D75=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I75:$V75,"?????*")&gt;0,", ",""),IF(Sample!D75=1,H$103&amp;IF(COUNTIF(I75:$V75,"?????*")&gt;0,", ","")," ")))</f>
@@ -14470,10 +14481,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W75" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X75" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y75" s="41" t="str">
         <f t="shared" si="1"/>
@@ -14482,7 +14493,7 @@
     </row>
     <row r="76" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B76" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C76" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C75)&amp;", "</f>
@@ -14501,7 +14512,7 @@
         <v>date: '03/14/2018',</v>
       </c>
       <c r="G76" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H76" s="40" t="str">
         <f>IF(Sample!D76=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I76:$V76,"?????*")&gt;0,", ",""),IF(Sample!D76=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I76:$V76,"?????*")&gt;0,", ",""),IF(Sample!D76=1,H$103&amp;IF(COUNTIF(I76:$V76,"?????*")&gt;0,", ","")," ")))</f>
@@ -14564,10 +14575,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W76" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X76" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y76" s="41" t="str">
         <f t="shared" si="1"/>
@@ -14576,7 +14587,7 @@
     </row>
     <row r="77" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B77" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C77" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C76)&amp;", "</f>
@@ -14595,7 +14606,7 @@
         <v>date: '03/14/2018',</v>
       </c>
       <c r="G77" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H77" s="40" t="str">
         <f>IF(Sample!D77=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I77:$V77,"?????*")&gt;0,", ",""),IF(Sample!D77=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I77:$V77,"?????*")&gt;0,", ",""),IF(Sample!D77=1,H$103&amp;IF(COUNTIF(I77:$V77,"?????*")&gt;0,", ","")," ")))</f>
@@ -14658,10 +14669,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W77" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X77" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y77" s="41" t="str">
         <f t="shared" si="1"/>
@@ -14670,7 +14681,7 @@
     </row>
     <row r="78" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B78" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C78" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C77)&amp;", "</f>
@@ -14689,7 +14700,7 @@
         <v>date: '03/14/2018',</v>
       </c>
       <c r="G78" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H78" s="40" t="str">
         <f>IF(Sample!D78=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I78:$V78,"?????*")&gt;0,", ",""),IF(Sample!D78=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I78:$V78,"?????*")&gt;0,", ",""),IF(Sample!D78=1,H$103&amp;IF(COUNTIF(I78:$V78,"?????*")&gt;0,", ","")," ")))</f>
@@ -14752,10 +14763,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W78" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X78" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y78" s="41" t="str">
         <f t="shared" si="1"/>
@@ -14764,7 +14775,7 @@
     </row>
     <row r="79" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B79" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C79" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C78)&amp;", "</f>
@@ -14783,7 +14794,7 @@
         <v>date: '03/17/2018',</v>
       </c>
       <c r="G79" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H79" s="40" t="str">
         <f>IF(Sample!D79=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I79:$V79,"?????*")&gt;0,", ",""),IF(Sample!D79=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I79:$V79,"?????*")&gt;0,", ",""),IF(Sample!D79=1,H$103&amp;IF(COUNTIF(I79:$V79,"?????*")&gt;0,", ","")," ")))</f>
@@ -14846,10 +14857,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W79" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X79" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y79" s="41" t="str">
         <f t="shared" si="1"/>
@@ -14858,7 +14869,7 @@
     </row>
     <row r="80" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B80" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C80" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C79)&amp;", "</f>
@@ -14877,7 +14888,7 @@
         <v>date: '03/17/2018',</v>
       </c>
       <c r="G80" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H80" s="40" t="str">
         <f>IF(Sample!D80=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I80:$V80,"?????*")&gt;0,", ",""),IF(Sample!D80=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I80:$V80,"?????*")&gt;0,", ",""),IF(Sample!D80=1,H$103&amp;IF(COUNTIF(I80:$V80,"?????*")&gt;0,", ","")," ")))</f>
@@ -14940,10 +14951,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W80" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X80" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y80" s="41" t="str">
         <f t="shared" si="1"/>
@@ -14952,7 +14963,7 @@
     </row>
     <row r="81" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B81" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C81" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C80)&amp;", "</f>
@@ -14971,7 +14982,7 @@
         <v>date: '03/17/2018',</v>
       </c>
       <c r="G81" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H81" s="40" t="str">
         <f>IF(Sample!D81=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I81:$V81,"?????*")&gt;0,", ",""),IF(Sample!D81=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I81:$V81,"?????*")&gt;0,", ",""),IF(Sample!D81=1,H$103&amp;IF(COUNTIF(I81:$V81,"?????*")&gt;0,", ","")," ")))</f>
@@ -15034,10 +15045,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W81" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X81" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y81" s="41" t="str">
         <f t="shared" si="1"/>
@@ -15046,7 +15057,7 @@
     </row>
     <row r="82" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B82" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C82" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C81)&amp;", "</f>
@@ -15065,7 +15076,7 @@
         <v>date: '03/19/2018',</v>
       </c>
       <c r="G82" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H82" s="40" t="str">
         <f>IF(Sample!D82=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I82:$V82,"?????*")&gt;0,", ",""),IF(Sample!D82=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I82:$V82,"?????*")&gt;0,", ",""),IF(Sample!D82=1,H$103&amp;IF(COUNTIF(I82:$V82,"?????*")&gt;0,", ","")," ")))</f>
@@ -15128,10 +15139,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W82" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X82" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y82" s="41" t="str">
         <f t="shared" si="1"/>
@@ -15140,7 +15151,7 @@
     </row>
     <row r="83" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B83" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C83" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C82)&amp;", "</f>
@@ -15159,7 +15170,7 @@
         <v>date: '03/19/2018',</v>
       </c>
       <c r="G83" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H83" s="40" t="str">
         <f>IF(Sample!D83=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I83:$V83,"?????*")&gt;0,", ",""),IF(Sample!D83=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I83:$V83,"?????*")&gt;0,", ",""),IF(Sample!D83=1,H$103&amp;IF(COUNTIF(I83:$V83,"?????*")&gt;0,", ","")," ")))</f>
@@ -15222,10 +15233,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W83" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X83" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y83" s="41" t="str">
         <f t="shared" si="1"/>
@@ -15234,7 +15245,7 @@
     </row>
     <row r="84" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B84" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C84" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C83)&amp;", "</f>
@@ -15253,7 +15264,7 @@
         <v>date: '03/19/2018',</v>
       </c>
       <c r="G84" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H84" s="40" t="str">
         <f>IF(Sample!D84=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I84:$V84,"?????*")&gt;0,", ",""),IF(Sample!D84=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I84:$V84,"?????*")&gt;0,", ",""),IF(Sample!D84=1,H$103&amp;IF(COUNTIF(I84:$V84,"?????*")&gt;0,", ","")," ")))</f>
@@ -15316,10 +15327,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W84" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X84" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y84" s="41" t="str">
         <f t="shared" si="1"/>
@@ -15328,7 +15339,7 @@
     </row>
     <row r="85" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B85" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C85" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C84)&amp;", "</f>
@@ -15347,7 +15358,7 @@
         <v>date: '03/19/2018',</v>
       </c>
       <c r="G85" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H85" s="40" t="str">
         <f>IF(Sample!D85=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I85:$V85,"?????*")&gt;0,", ",""),IF(Sample!D85=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I85:$V85,"?????*")&gt;0,", ",""),IF(Sample!D85=1,H$103&amp;IF(COUNTIF(I85:$V85,"?????*")&gt;0,", ","")," ")))</f>
@@ -15410,10 +15421,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W85" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X85" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y85" s="41" t="str">
         <f t="shared" si="1"/>
@@ -15422,7 +15433,7 @@
     </row>
     <row r="86" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B86" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C86" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C85)&amp;", "</f>
@@ -15441,7 +15452,7 @@
         <v>date: '03/23/2018',</v>
       </c>
       <c r="G86" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H86" s="40" t="str">
         <f>IF(Sample!D86=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I86:$V86,"?????*")&gt;0,", ",""),IF(Sample!D86=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I86:$V86,"?????*")&gt;0,", ",""),IF(Sample!D86=1,H$103&amp;IF(COUNTIF(I86:$V86,"?????*")&gt;0,", ","")," ")))</f>
@@ -15504,10 +15515,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W86" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X86" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y86" s="41" t="str">
         <f t="shared" si="1"/>
@@ -15516,7 +15527,7 @@
     </row>
     <row r="87" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B87" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C87" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C86)&amp;", "</f>
@@ -15535,7 +15546,7 @@
         <v>date: '03/23/2018',</v>
       </c>
       <c r="G87" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H87" s="40" t="str">
         <f>IF(Sample!D87=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I87:$V87,"?????*")&gt;0,", ",""),IF(Sample!D87=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I87:$V87,"?????*")&gt;0,", ",""),IF(Sample!D87=1,H$103&amp;IF(COUNTIF(I87:$V87,"?????*")&gt;0,", ","")," ")))</f>
@@ -15598,10 +15609,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W87" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X87" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y87" s="41" t="str">
         <f t="shared" si="1"/>
@@ -15610,7 +15621,7 @@
     </row>
     <row r="88" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B88" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C88" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C87)&amp;", "</f>
@@ -15629,7 +15640,7 @@
         <v>date: '03/26/2018',</v>
       </c>
       <c r="G88" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H88" s="40" t="str">
         <f>IF(Sample!D88=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I88:$V88,"?????*")&gt;0,", ",""),IF(Sample!D88=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I88:$V88,"?????*")&gt;0,", ",""),IF(Sample!D88=1,H$103&amp;IF(COUNTIF(I88:$V88,"?????*")&gt;0,", ","")," ")))</f>
@@ -15692,10 +15703,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W88" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X88" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y88" s="41" t="str">
         <f t="shared" si="1"/>
@@ -15704,7 +15715,7 @@
     </row>
     <row r="89" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B89" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C89" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C88)&amp;", "</f>
@@ -15723,7 +15734,7 @@
         <v>date: '03/28/2018',</v>
       </c>
       <c r="G89" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H89" s="40" t="str">
         <f>IF(Sample!D89=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I89:$V89,"?????*")&gt;0,", ",""),IF(Sample!D89=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I89:$V89,"?????*")&gt;0,", ",""),IF(Sample!D89=1,H$103&amp;IF(COUNTIF(I89:$V89,"?????*")&gt;0,", ","")," ")))</f>
@@ -15786,10 +15797,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W89" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X89" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y89" s="41" t="str">
         <f t="shared" si="1"/>
@@ -15798,7 +15809,7 @@
     </row>
     <row r="90" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B90" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C90" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C89)&amp;", "</f>
@@ -15817,7 +15828,7 @@
         <v>date: '03/28/2018',</v>
       </c>
       <c r="G90" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H90" s="40" t="str">
         <f>IF(Sample!D90=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I90:$V90,"?????*")&gt;0,", ",""),IF(Sample!D90=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I90:$V90,"?????*")&gt;0,", ",""),IF(Sample!D90=1,H$103&amp;IF(COUNTIF(I90:$V90,"?????*")&gt;0,", ","")," ")))</f>
@@ -15880,10 +15891,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W90" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X90" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y90" s="41" t="str">
         <f t="shared" si="1"/>
@@ -15892,7 +15903,7 @@
     </row>
     <row r="91" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B91" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C91" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C90)&amp;", "</f>
@@ -15911,7 +15922,7 @@
         <v>date: '03/28/2018',</v>
       </c>
       <c r="G91" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H91" s="40" t="str">
         <f>IF(Sample!D91=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I91:$V91,"?????*")&gt;0,", ",""),IF(Sample!D91=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I91:$V91,"?????*")&gt;0,", ",""),IF(Sample!D91=1,H$103&amp;IF(COUNTIF(I91:$V91,"?????*")&gt;0,", ","")," ")))</f>
@@ -15974,10 +15985,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W91" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X91" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y91" s="41" t="str">
         <f t="shared" si="1"/>
@@ -15986,7 +15997,7 @@
     </row>
     <row r="92" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B92" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C92" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C91)&amp;", "</f>
@@ -16005,7 +16016,7 @@
         <v>date: '03/30/2018',</v>
       </c>
       <c r="G92" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H92" s="40" t="str">
         <f>IF(Sample!D92=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I92:$V92,"?????*")&gt;0,", ",""),IF(Sample!D92=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I92:$V92,"?????*")&gt;0,", ",""),IF(Sample!D92=1,H$103&amp;IF(COUNTIF(I92:$V92,"?????*")&gt;0,", ","")," ")))</f>
@@ -16068,10 +16079,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W92" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X92" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y92" s="41" t="str">
         <f>IF(COUNTA(#REF!)=1,","," ")</f>
@@ -16080,7 +16091,7 @@
     </row>
     <row r="93" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B93" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C93" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C92)&amp;", "</f>
@@ -16099,7 +16110,7 @@
         <v>date: '03/30/2018',</v>
       </c>
       <c r="G93" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H93" s="40" t="str">
         <f>IF(Sample!D93=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I93:$V93,"?????*")&gt;0,", ",""),IF(Sample!D93=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I93:$V93,"?????*")&gt;0,", ",""),IF(Sample!D93=1,H$103&amp;IF(COUNTIF(I93:$V93,"?????*")&gt;0,", ","")," ")))</f>
@@ -16162,10 +16173,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W93" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X93" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y93" s="41" t="str">
         <f t="shared" si="1"/>
@@ -16174,7 +16185,7 @@
     </row>
     <row r="94" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B94" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C94" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C93)&amp;", "</f>
@@ -16193,7 +16204,7 @@
         <v>date: '03/30/2018',</v>
       </c>
       <c r="G94" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H94" s="40" t="str">
         <f>IF(Sample!D94=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I94:$V94,"?????*")&gt;0,", ",""),IF(Sample!D94=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I94:$V94,"?????*")&gt;0,", ",""),IF(Sample!D94=1,H$103&amp;IF(COUNTIF(I94:$V94,"?????*")&gt;0,", ","")," ")))</f>
@@ -16256,10 +16267,10 @@
         <v>{difficulty: "5^12-", score:244}</v>
       </c>
       <c r="W94" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X94" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y94" s="41" t="str">
         <f t="shared" si="1"/>
@@ -16268,7 +16279,7 @@
     </row>
     <row r="95" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B95" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C95" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C94)&amp;", "</f>
@@ -16287,7 +16298,7 @@
         <v>date: '04/22/2018',</v>
       </c>
       <c r="G95" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H95" s="40" t="str">
         <f>IF(Sample!D95=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I95:$V95,"?????*")&gt;0,", ",""),IF(Sample!D95=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I95:$V95,"?????*")&gt;0,", ",""),IF(Sample!D95=1,H$103&amp;IF(COUNTIF(I95:$V95,"?????*")&gt;0,", ","")," ")))</f>
@@ -16350,10 +16361,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W95" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X95" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y95" s="41" t="str">
         <f t="shared" si="1"/>
@@ -16362,7 +16373,7 @@
     </row>
     <row r="96" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B96" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C96" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C95)&amp;", "</f>
@@ -16381,7 +16392,7 @@
         <v>date: '04/22/2018',</v>
       </c>
       <c r="G96" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H96" s="40" t="str">
         <f>IF(Sample!D96=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I96:$V96,"?????*")&gt;0,", ",""),IF(Sample!D96=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I96:$V96,"?????*")&gt;0,", ",""),IF(Sample!D96=1,H$103&amp;IF(COUNTIF(I96:$V96,"?????*")&gt;0,", ","")," ")))</f>
@@ -16444,10 +16455,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W96" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X96" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y96" s="41" t="str">
         <f t="shared" ref="Y96:Y100" si="2">IF(COUNTA(B97)=1,","," ")</f>
@@ -16456,7 +16467,7 @@
     </row>
     <row r="97" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B97" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C97" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C96)&amp;", "</f>
@@ -16475,7 +16486,7 @@
         <v>date: '04/22/2018',</v>
       </c>
       <c r="G97" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H97" s="40" t="str">
         <f>IF(Sample!D97=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I97:$V97,"?????*")&gt;0,", ",""),IF(Sample!D97=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I97:$V97,"?????*")&gt;0,", ",""),IF(Sample!D97=1,H$103&amp;IF(COUNTIF(I97:$V97,"?????*")&gt;0,", ","")," ")))</f>
@@ -16538,10 +16549,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W97" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X97" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y97" s="41" t="str">
         <f t="shared" si="2"/>
@@ -16550,7 +16561,7 @@
     </row>
     <row r="98" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B98" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C98" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C97)&amp;", "</f>
@@ -16569,7 +16580,7 @@
         <v>date: '04/29/2018',</v>
       </c>
       <c r="G98" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H98" s="40" t="str">
         <f>IF(Sample!D98=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I98:$V98,"?????*")&gt;0,", ",""),IF(Sample!D98=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I98:$V98,"?????*")&gt;0,", ",""),IF(Sample!D98=1,H$103&amp;IF(COUNTIF(I98:$V98,"?????*")&gt;0,", ","")," ")))</f>
@@ -16632,10 +16643,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W98" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X98" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y98" s="41" t="str">
         <f t="shared" si="2"/>
@@ -16644,7 +16655,7 @@
     </row>
     <row r="99" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B99" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C99" s="40" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C98)&amp;", "</f>
@@ -16663,7 +16674,7 @@
         <v>date: '04/29/2018',</v>
       </c>
       <c r="G99" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H99" s="40" t="str">
         <f>IF(Sample!D99=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I99:$V99,"?????*")&gt;0,", ",""),IF(Sample!D99=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I99:$V99,"?????*")&gt;0,", ",""),IF(Sample!D99=1,H$103&amp;IF(COUNTIF(I99:$V99,"?????*")&gt;0,", ","")," ")))</f>
@@ -16726,10 +16737,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W99" s="40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X99" s="40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y99" s="41" t="str">
         <f t="shared" si="2"/>
@@ -16738,7 +16749,7 @@
     </row>
     <row r="100" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="42" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C100" s="43" t="str">
         <f>" id: "&amp;COUNTA($C$2:$C99)&amp;", "</f>
@@ -16757,7 +16768,7 @@
         <v>date: '04/29/2018',</v>
       </c>
       <c r="G100" s="43" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H100" s="43" t="str">
         <f>IF(Sample!D100=3,H$103&amp;", "&amp;H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I100:$V100,"?????*")&gt;0,", ",""),IF(Sample!D100=2,H$103&amp;", "&amp;H$103&amp;IF(COUNTIF(I100:$V100,"?????*")&gt;0,", ",""),IF(Sample!D100=1,H$103&amp;IF(COUNTIF(I100:$V100,"?????*")&gt;0,", ","")," ")))</f>
@@ -16820,10 +16831,10 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="W100" s="43" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X100" s="43" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y100" s="44" t="str">
         <f t="shared" si="2"/>
@@ -16836,15 +16847,15 @@
     <row r="102" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B102" s="26"/>
       <c r="AA102" s="35" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AB102" s="35" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="103" spans="2:28" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="47" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C103" s="48"/>
       <c r="D103" s="48"/>
@@ -16915,10 +16926,10 @@
       <c r="X103" s="45"/>
       <c r="Y103" s="46"/>
       <c r="AA103" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB103" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="104" spans="2:28" x14ac:dyDescent="0.25">
@@ -16960,72 +16971,74 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266C1C05-88EA-48C3-9172-48D5756424B1}">
-  <dimension ref="B1:L29"/>
+  <dimension ref="B1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.77734375" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="22.109375" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.109375" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="49" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C2" s="50"/>
       <c r="D2" s="51"/>
       <c r="F2" s="49" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G2" s="50"/>
       <c r="H2" s="50"/>
       <c r="I2" s="51"/>
       <c r="K2" s="49" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L2" s="51"/>
     </row>
     <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="15" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L3" s="31" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C4" s="22">
         <f>IF($B4&lt;&gt;" ",MAX($C$3:$C3)+1," ")</f>
@@ -17036,16 +17049,18 @@
         <v>User.create({email: 'Lester', password: '123'}),</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G4" s="22">
         <f>IF(ISTEXT($F4),MAX($G$3:$G3)+1," ")</f>
         <v>1</v>
       </c>
-      <c r="H4" s="22"/>
+      <c r="H4" s="22" t="s">
+        <v>118</v>
+      </c>
       <c r="I4" s="19"/>
       <c r="K4" s="27" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L4" s="32">
         <v>10</v>
@@ -17065,16 +17080,18 @@
         <v>User.create({email: 'Jan', password: '123'}),</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G5" s="22">
         <f>IF(ISTEXT($F5),MAX($G$3:$G4)+1," ")</f>
         <v>2</v>
       </c>
-      <c r="H5" s="22"/>
+      <c r="H5" s="22" t="s">
+        <v>119</v>
+      </c>
       <c r="I5" s="19"/>
       <c r="K5" s="27" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L5" s="32">
         <f>L4*(1.2+ROW()/100)</f>
@@ -17095,16 +17112,18 @@
         <v>User.create({email: 'Sameena', password: '123'}),</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G6" s="22">
         <f>IF(ISTEXT($F6),MAX($G$3:$G5)+1," ")</f>
         <v>3</v>
       </c>
-      <c r="H6" s="22"/>
+      <c r="H6" s="52" t="s">
+        <v>120</v>
+      </c>
       <c r="I6" s="19"/>
       <c r="K6" s="27" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L6" s="32">
         <f t="shared" ref="L6:L7" si="1">L5*(1.2+ROW()/100)</f>
@@ -17125,16 +17144,18 @@
         <v>User.create({email: 'Edwin', password: '123'}),</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G7" s="22">
         <f>IF(ISTEXT($F7),MAX($G$3:$G6)+1," ")</f>
         <v>4</v>
       </c>
-      <c r="H7" s="22"/>
+      <c r="H7" s="52" t="s">
+        <v>121</v>
+      </c>
       <c r="I7" s="19"/>
       <c r="K7" s="27" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L7" s="32">
         <f t="shared" si="1"/>
@@ -17155,16 +17176,18 @@
         <v>User.create({email: 'Michelle', password: '123'}),</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G8" s="22">
         <f>IF(ISTEXT($F8),MAX($G$3:$G7)+1," ")</f>
         <v>5</v>
       </c>
-      <c r="H8" s="22"/>
+      <c r="H8" s="52" t="s">
+        <v>122</v>
+      </c>
       <c r="I8" s="19"/>
       <c r="K8" s="27" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L8" s="32">
         <f>L7*(1.1+ROW()*1.2/100)</f>
@@ -17192,7 +17215,7 @@
       <c r="H9" s="22"/>
       <c r="I9" s="19"/>
       <c r="K9" s="27" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L9" s="32">
         <f t="shared" ref="L9:L21" si="2">L8*(1.1+ROW()*1.2/100)</f>
@@ -17220,7 +17243,7 @@
       <c r="H10" s="22"/>
       <c r="I10" s="19"/>
       <c r="K10" s="27" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L10" s="32">
         <f t="shared" si="2"/>
@@ -17248,7 +17271,7 @@
       <c r="H11" s="22"/>
       <c r="I11" s="19"/>
       <c r="K11" s="27" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L11" s="32">
         <f t="shared" si="2"/>
@@ -17276,7 +17299,7 @@
       <c r="H12" s="22"/>
       <c r="I12" s="19"/>
       <c r="K12" s="27" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L12" s="32">
         <f t="shared" si="2"/>
@@ -17304,7 +17327,7 @@
       <c r="H13" s="22"/>
       <c r="I13" s="19"/>
       <c r="K13" s="27" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L13" s="32">
         <f t="shared" si="2"/>
@@ -17332,7 +17355,7 @@
       <c r="H14" s="22"/>
       <c r="I14" s="19"/>
       <c r="K14" s="27" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L14" s="32">
         <f t="shared" si="2"/>
@@ -17360,7 +17383,7 @@
       <c r="H15" s="22"/>
       <c r="I15" s="19"/>
       <c r="K15" s="27" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L15" s="32">
         <f t="shared" si="2"/>
@@ -17388,7 +17411,7 @@
       <c r="H16" s="22"/>
       <c r="I16" s="19"/>
       <c r="K16" s="27" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L16" s="32">
         <f t="shared" si="2"/>
@@ -17416,7 +17439,7 @@
       <c r="H17" s="22"/>
       <c r="I17" s="19"/>
       <c r="K17" s="27" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L17" s="32">
         <f t="shared" si="2"/>
@@ -17444,7 +17467,7 @@
       <c r="H18" s="22"/>
       <c r="I18" s="19"/>
       <c r="K18" s="27" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L18" s="32">
         <f t="shared" si="2"/>
@@ -17472,7 +17495,7 @@
       <c r="H19" s="22"/>
       <c r="I19" s="19"/>
       <c r="K19" s="27" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L19" s="32">
         <f t="shared" si="2"/>
@@ -17500,7 +17523,7 @@
       <c r="H20" s="22"/>
       <c r="I20" s="19"/>
       <c r="K20" s="27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L20" s="32">
         <f t="shared" si="2"/>
@@ -17528,7 +17551,7 @@
       <c r="H21" s="22"/>
       <c r="I21" s="19"/>
       <c r="K21" s="33" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L21" s="34">
         <f t="shared" si="2"/>
@@ -17639,6 +17662,9 @@
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="19"/>
+      <c r="K26" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="21" t="str">
@@ -17702,6 +17728,9 @@
       </c>
       <c r="H29" s="24"/>
       <c r="I29" s="29"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/AscendWorksheet.xlsx
+++ b/AscendWorksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roger\Documents\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ADF3B9-2C9F-493A-BCE5-179B595AEA25}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FE6678-3676-4BEA-B77B-FBECFD6C1268}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="0" windowWidth="21660" windowHeight="12360" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="600" windowWidth="21660" windowHeight="12360" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Java" sheetId="1" state="hidden" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="129">
   <si>
     <t>Date</t>
   </si>
@@ -417,6 +417,15 @@
   <si>
     <t>Legend Data</t>
   </si>
+  <si>
+    <t>ClimbSession Card</t>
+  </si>
+  <si>
+    <t>Climb Card</t>
+  </si>
+  <si>
+    <t>CRUD Functionality</t>
+  </si>
 </sst>
 </file>
 
@@ -445,6 +454,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -836,7 +846,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -902,6 +912,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -917,7 +928,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="60% - Accent6" xfId="5" builtinId="52"/>
@@ -1648,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1874,7 +1885,7 @@
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
-      <c r="E29" t="s">
+      <c r="E29" s="53" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1882,16 +1893,25 @@
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
+      <c r="E30" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
+      <c r="E31" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
+      <c r="E32" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
@@ -16854,14 +16874,14 @@
       </c>
     </row>
     <row r="103" spans="2:28" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="47" t="s">
+      <c r="B103" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="C103" s="48"/>
-      <c r="D103" s="48"/>
-      <c r="E103" s="48"/>
-      <c r="F103" s="48"/>
-      <c r="G103" s="48"/>
+      <c r="C103" s="49"/>
+      <c r="D103" s="49"/>
+      <c r="E103" s="49"/>
+      <c r="F103" s="49"/>
+      <c r="G103" s="49"/>
       <c r="H103" s="45" t="str">
         <f>$AA$103&amp;""""&amp;H$2&amp;""""&amp;$AB$103&amp;TEXT(VLOOKUP(H$2,Control!$K$3:$L$21,2,FALSE),0)&amp;"}"</f>
         <v>{difficulty: "5^5", score:10}</v>
@@ -16991,21 +17011,21 @@
   <sheetData>
     <row r="1" spans="2:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
-      <c r="F2" s="49" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
+      <c r="F2" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
-      <c r="K2" s="49" t="s">
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
+      <c r="K2" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="L2" s="51"/>
+      <c r="L2" s="52"/>
     </row>
     <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="15" t="s">
@@ -17118,7 +17138,7 @@
         <f>IF(ISTEXT($F6),MAX($G$3:$G5)+1," ")</f>
         <v>3</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="47" t="s">
         <v>120</v>
       </c>
       <c r="I6" s="19"/>
@@ -17150,7 +17170,7 @@
         <f>IF(ISTEXT($F7),MAX($G$3:$G6)+1," ")</f>
         <v>4</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="47" t="s">
         <v>121</v>
       </c>
       <c r="I7" s="19"/>
@@ -17182,7 +17202,7 @@
         <f>IF(ISTEXT($F8),MAX($G$3:$G7)+1," ")</f>
         <v>5</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="47" t="s">
         <v>122</v>
       </c>
       <c r="I8" s="19"/>
